--- a/Dipper/Dipper/bin/Template1.xlsx
+++ b/Dipper/Dipper/bin/Template1.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Projects\Dipper\Dipper\Dipper\Dipper\bin\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9591487D-9E0C-4552-97BF-0D4ED1C0EC61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="2685" windowWidth="21600" windowHeight="11505" xr2:uid="{2F72C6CE-B848-43B8-999B-FFBBF8B009B7}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
   <si>
     <t>ПКС</t>
   </si>
@@ -72,14 +61,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -100,35 +99,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -166,7 +168,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -272,7 +274,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -421,281 +423,610 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E03016A-D654-4BC9-BD9C-A7617F96F4F4}">
-  <dimension ref="A1:I37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+  <sheetPr/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28516" customWidth="1"/>
+    <col min="2" max="9" width="14.14063" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" customHeight="true">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4">
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" customHeight="true">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" ht="16.5" customHeight="true">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" ht="16.5" customHeight="true">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" ht="16.5" customHeight="true">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" ht="16.5" customHeight="true">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" ht="16.5" customHeight="true">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" ht="16.5" customHeight="true">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="true">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="true">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="true">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="true">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="true">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="true">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="true">
+      <c r="A16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="true">
+      <c r="A17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="true">
+      <c r="A18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="true">
+      <c r="A19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="true">
+      <c r="A20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="true">
+      <c r="A21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="true">
+      <c r="A22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="true">
+      <c r="A23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="true">
+      <c r="A24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="true">
+      <c r="A25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="true">
+      <c r="A26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="true">
+      <c r="A27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="true">
+      <c r="A28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="true">
+      <c r="A29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="true">
+      <c r="A30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="true">
+      <c r="A31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="true">
+      <c r="A32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="true">
+      <c r="A33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="true">
+      <c r="A34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="true">
+      <c r="A35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="true">
+      <c r="A36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="true">
+      <c r="A37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="2">
         <v>7</v>
       </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="true">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="A31:A37"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </worksheet>
 </file>
--- a/Dipper/Dipper/bin/Template1.xlsx
+++ b/Dipper/Dipper/bin/Template1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shayk\OneDrive\Рабочий стол\Diplom\Dipper\Dipper\bin\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="690" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="14">
   <si>
     <t/>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>ПКС</t>
   </si>
   <si>
@@ -31,54 +33,57 @@
     <t>СГГ</t>
   </si>
   <si>
+    <t>ТОА</t>
+  </si>
+  <si>
+    <t>Понедельник</t>
+  </si>
+  <si>
+    <t>Вторник</t>
+  </si>
+  <si>
+    <t>Среда</t>
+  </si>
+  <si>
+    <t>Четверг</t>
+  </si>
+  <si>
+    <t>Пятница</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>ПСО</t>
   </si>
   <si>
-    <t>ТОА</t>
-  </si>
-  <si>
     <t>ЗИО</t>
   </si>
   <si>
     <t>ПД</t>
-  </si>
-  <si>
-    <t>Понедельник</t>
-  </si>
-  <si>
-    <t>Вторник</t>
-  </si>
-  <si>
-    <t>Среда</t>
-  </si>
-  <si>
-    <t>Четверг</t>
-  </si>
-  <si>
-    <t>Пятница</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="204"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -105,23 +110,27 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -423,19 +432,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28516" customWidth="1"/>
-    <col min="2" max="9" width="14.14063" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,55 +453,55 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" ht="16.5" customHeight="true">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" ht="16.5" customHeight="true">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -504,9 +514,9 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" ht="16.5" customHeight="true">
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -519,9 +529,9 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" ht="16.5" customHeight="true">
+    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
         <v>3</v>
@@ -534,9 +544,9 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" ht="16.5" customHeight="true">
+    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>4</v>
@@ -549,9 +559,9 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" ht="16.5" customHeight="true">
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
@@ -564,9 +574,9 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" ht="16.5" customHeight="true">
+    <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
@@ -579,9 +589,9 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" ht="16.5" customHeight="true">
+    <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2">
         <v>7</v>
@@ -594,9 +604,9 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" ht="16.5" customHeight="true">
+    <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -609,9 +619,9 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" ht="16.5" customHeight="true">
+    <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2">
         <v>2</v>
@@ -624,9 +634,9 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" ht="16.5" customHeight="true">
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2">
         <v>3</v>
@@ -639,9 +649,9 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" ht="16.5" customHeight="true">
+    <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2">
         <v>4</v>
@@ -654,9 +664,9 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" ht="16.5" customHeight="true">
+    <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2">
         <v>5</v>
@@ -669,9 +679,9 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" ht="16.5" customHeight="true">
+    <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2">
         <v>6</v>
@@ -684,9 +694,9 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" ht="16.5" customHeight="true">
+    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2">
         <v>7</v>
@@ -699,9 +709,9 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" ht="16.5" customHeight="true">
+    <row r="17" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -714,9 +724,9 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" ht="16.5" customHeight="true">
+    <row r="18" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B18" s="2">
         <v>2</v>
@@ -729,9 +739,9 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" ht="16.5" customHeight="true">
+    <row r="19" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B19" s="2">
         <v>3</v>
@@ -744,9 +754,9 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" ht="16.5" customHeight="true">
+    <row r="20" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
@@ -759,9 +769,9 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" ht="16.5" customHeight="true">
+    <row r="21" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B21" s="2">
         <v>5</v>
@@ -774,9 +784,9 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" ht="16.5" customHeight="true">
+    <row r="22" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B22" s="2">
         <v>6</v>
@@ -789,9 +799,9 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" ht="16.5" customHeight="true">
+    <row r="23" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B23" s="2">
         <v>7</v>
@@ -804,9 +814,9 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" ht="16.5" customHeight="true">
+    <row r="24" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
@@ -819,9 +829,9 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" ht="16.5" customHeight="true">
+    <row r="25" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B25" s="2">
         <v>2</v>
@@ -834,9 +844,9 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" ht="16.5" customHeight="true">
+    <row r="26" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B26" s="2">
         <v>3</v>
@@ -849,9 +859,9 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" ht="16.5" customHeight="true">
+    <row r="27" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B27" s="2">
         <v>4</v>
@@ -864,9 +874,9 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" ht="16.5" customHeight="true">
+    <row r="28" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B28" s="2">
         <v>5</v>
@@ -879,9 +889,9 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" ht="16.5" customHeight="true">
+    <row r="29" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B29" s="2">
         <v>6</v>
@@ -894,9 +904,9 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" ht="16.5" customHeight="true">
+    <row r="30" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B30" s="2">
         <v>7</v>
@@ -909,9 +919,9 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" ht="16.5" customHeight="true">
+    <row r="31" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
@@ -924,9 +934,9 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" ht="16.5" customHeight="true">
+    <row r="32" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B32" s="2">
         <v>2</v>
@@ -939,9 +949,9 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" ht="16.5" customHeight="true">
+    <row r="33" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B33" s="2">
         <v>3</v>
@@ -954,9 +964,9 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" ht="16.5" customHeight="true">
+    <row r="34" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B34" s="2">
         <v>4</v>
@@ -969,9 +979,9 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" ht="16.5" customHeight="true">
+    <row r="35" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B35" s="2">
         <v>5</v>
@@ -984,9 +994,9 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" ht="16.5" customHeight="true">
+    <row r="36" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B36" s="2">
         <v>6</v>
@@ -999,9 +1009,9 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" ht="16.5" customHeight="true">
+    <row r="37" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B37" s="2">
         <v>7</v>
@@ -1014,19 +1024,16 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" ht="16.5" customHeight="true">
+    <row r="38" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>